--- a/SLOC.xlsx
+++ b/SLOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\repos\coro-mc-wwl-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9D98C-D110-4755-A75F-B74A6B899BA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D57C8D-E5A7-445B-ADA7-D1EBC2059D2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="523">
   <si>
     <t>Version</t>
   </si>
@@ -1607,6 +1607,9 @@
   </si>
   <si>
     <t>#endif // I2C_VERSION == 0</t>
+  </si>
+  <si>
+    <t>X-check:</t>
   </si>
 </sst>
 </file>
@@ -1943,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BB995B-793F-4EDE-B768-57D76767B6FA}">
-  <dimension ref="B1:H22"/>
+  <dimension ref="B1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,7 +2217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="str">
         <f>B1</f>
         <v>Version</v>
@@ -2227,7 +2230,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -2261,6 +2264,23 @@
       <c r="H22">
         <f>H6+H11</f>
         <v>60</v>
+      </c>
+      <c r="I22">
+        <f>H21+H22</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>522</v>
+      </c>
+      <c r="H24">
+        <f>SUM(H20:H22)</f>
+        <v>619</v>
+      </c>
+      <c r="I24">
+        <f>SUM(H2:H11)</f>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
